--- a/test1/WeaponImpacts.xlsx
+++ b/test1/WeaponImpacts.xlsx
@@ -13,8 +13,62 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>ocean</author>
+  </authors>
+  <commentList>
+    <comment ref="B4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t>ocean:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t xml:space="preserve">
+某型号武器的某攻击动作触发韧性打空后对应的受击动画</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t>ocean:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t xml:space="preserve">
+可以使用ref，受击者此时的状态为key，结合此处数值，最终生成的动画状态</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="38">
   <si>
     <t>__default__</t>
   </si>
@@ -28,6 +82,57 @@
     <t>__name__</t>
   </si>
   <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2013</t>
+  </si>
+  <si>
+    <t>2014</t>
+  </si>
+  <si>
+    <t>2015</t>
+  </si>
+  <si>
+    <t>20211</t>
+  </si>
+  <si>
+    <t>20212</t>
+  </si>
+  <si>
+    <t>20221</t>
+  </si>
+  <si>
+    <t>20222</t>
+  </si>
+  <si>
+    <t>20231</t>
+  </si>
+  <si>
+    <t>20232</t>
+  </si>
+  <si>
+    <t>20311</t>
+  </si>
+  <si>
+    <t>20312</t>
+  </si>
+  <si>
+    <t>20313</t>
+  </si>
+  <si>
+    <t>20321</t>
+  </si>
+  <si>
+    <t>20322</t>
+  </si>
+  <si>
+    <t>20323</t>
+  </si>
+  <si>
     <t>无</t>
   </si>
   <si>
@@ -49,16 +154,19 @@
     <t>轻武器</t>
   </si>
   <si>
+    <t>中武器</t>
+  </si>
+  <si>
     <t>重武器</t>
   </si>
   <si>
     <t>轻武器轻攻击</t>
   </si>
   <si>
+    <t>轻武器重，中武器轻重，重武器偶</t>
+  </si>
+  <si>
     <t>轻武器不可能产生击倒的冲击力?</t>
-  </si>
-  <si>
-    <t>轻武器重，中武器轻重，重武器偶</t>
   </si>
   <si>
     <t>重武器奇数</t>
@@ -82,11 +190,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="_ \￥* #,##0.00_ ;_ \￥* \-#,##0.00_ ;_ \￥* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ \￥* #,##0_ ;_ \￥* \-#,##0_ ;_ \￥* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -108,21 +216,36 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -137,23 +260,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -166,54 +296,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -235,9 +320,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -250,6 +335,40 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Times New Roman"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="Times New Roman"/>
+      <charset val="0"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -260,6 +379,42 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -272,175 +427,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -451,6 +570,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -480,6 +614,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -502,6 +647,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -516,47 +670,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -574,134 +693,134 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -714,7 +833,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -786,7 +905,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="E0FFFF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1036,40 +1155,75 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:R18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.6636363636364" defaultRowHeight="14.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="15.6636363636364" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="16373" width="15.6636363636364" style="2" customWidth="1"/>
     <col min="16374" max="16384" width="15.6636363636364" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.5" spans="1:7">
+    <row r="1" ht="15.5" spans="1:18">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3">
-        <v>0</v>
+        <v>301</v>
       </c>
       <c r="C1" s="3">
-        <v>0</v>
+        <v>301</v>
       </c>
       <c r="D1" s="3">
-        <v>0</v>
+        <v>301</v>
       </c>
       <c r="E1" s="3">
-        <v>0</v>
+        <v>301</v>
       </c>
       <c r="F1" s="3">
-        <v>0</v>
-      </c>
-      <c r="G1" s="3"/>
+        <v>301</v>
+      </c>
+      <c r="G1" s="3">
+        <v>301</v>
+      </c>
+      <c r="H1" s="3">
+        <v>301</v>
+      </c>
+      <c r="I1" s="3">
+        <v>301</v>
+      </c>
+      <c r="J1" s="3">
+        <v>301</v>
+      </c>
+      <c r="K1" s="3">
+        <v>301</v>
+      </c>
+      <c r="L1" s="3">
+        <v>301</v>
+      </c>
+      <c r="M1" s="3">
+        <v>301</v>
+      </c>
+      <c r="N1" s="3">
+        <v>301</v>
+      </c>
+      <c r="O1" s="3">
+        <v>301</v>
+      </c>
+      <c r="P1" s="3">
+        <v>301</v>
+      </c>
+      <c r="Q1" s="3">
+        <v>301</v>
+      </c>
+      <c r="R1" s="3">
+        <v>301</v>
+      </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:6">
+    <row r="2" s="1" customFormat="1" ht="14" spans="1:18">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1088,144 +1242,327 @@
       <c r="F2" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="G2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:6">
+    <row r="3" s="1" customFormat="1" ht="14" spans="1:18">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="4">
-        <v>0</v>
-      </c>
-      <c r="C3" s="4">
-        <v>201</v>
-      </c>
-      <c r="D3" s="2">
-        <v>202</v>
-      </c>
-      <c r="E3" s="4">
-        <v>2011</v>
-      </c>
-      <c r="F3" s="4">
-        <v>2021</v>
+      <c r="B3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R3" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:18">
       <c r="A4" s="2">
         <v>1</v>
       </c>
-      <c r="B4" s="2">
-        <v>0</v>
-      </c>
-      <c r="C4" s="2">
-        <v>301</v>
-      </c>
-      <c r="D4" s="2">
-        <v>302</v>
-      </c>
-      <c r="E4" s="2">
-        <v>301</v>
-      </c>
-      <c r="F4" s="2">
+      <c r="B4" s="1">
+        <v>301</v>
+      </c>
+      <c r="C4" s="1">
+        <v>301</v>
+      </c>
+      <c r="D4" s="1">
+        <v>301</v>
+      </c>
+      <c r="E4" s="1">
+        <v>301</v>
+      </c>
+      <c r="F4" s="1">
+        <v>301</v>
+      </c>
+      <c r="G4" s="1">
+        <v>302</v>
+      </c>
+      <c r="H4" s="1">
+        <v>302</v>
+      </c>
+      <c r="I4" s="1">
+        <v>302</v>
+      </c>
+      <c r="J4" s="1">
+        <v>302</v>
+      </c>
+      <c r="K4" s="1">
+        <v>302</v>
+      </c>
+      <c r="L4" s="1">
+        <v>302</v>
+      </c>
+      <c r="M4" s="1">
+        <v>302</v>
+      </c>
+      <c r="N4" s="1">
+        <v>302</v>
+      </c>
+      <c r="O4" s="1">
+        <v>302</v>
+      </c>
+      <c r="P4" s="1">
+        <v>302</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>302</v>
+      </c>
+      <c r="R4" s="1">
         <v>302</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:18">
       <c r="A5" s="2">
         <v>2</v>
       </c>
-      <c r="B5" s="2">
-        <v>0</v>
-      </c>
-      <c r="C5" s="2">
-        <v>302</v>
-      </c>
-      <c r="D5" s="2">
-        <v>303</v>
-      </c>
-      <c r="E5" s="2">
-        <v>302</v>
-      </c>
-      <c r="F5" s="2">
-        <v>303</v>
+      <c r="B5" s="1">
+        <v>301</v>
+      </c>
+      <c r="C5" s="1">
+        <v>301</v>
+      </c>
+      <c r="D5" s="1">
+        <v>301</v>
+      </c>
+      <c r="E5" s="1">
+        <v>301</v>
+      </c>
+      <c r="F5" s="1">
+        <v>301</v>
+      </c>
+      <c r="G5" s="1">
+        <v>302</v>
+      </c>
+      <c r="H5" s="1">
+        <v>302</v>
+      </c>
+      <c r="I5" s="1">
+        <v>302</v>
+      </c>
+      <c r="J5" s="1">
+        <v>302</v>
+      </c>
+      <c r="K5" s="1">
+        <v>302</v>
+      </c>
+      <c r="L5" s="1">
+        <v>302</v>
+      </c>
+      <c r="M5" s="1">
+        <v>302</v>
+      </c>
+      <c r="N5" s="1">
+        <v>302</v>
+      </c>
+      <c r="O5" s="1">
+        <v>302</v>
+      </c>
+      <c r="P5" s="1">
+        <v>302</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>302</v>
+      </c>
+      <c r="R5" s="1">
+        <v>302</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:18">
       <c r="A6" s="2">
         <v>3</v>
       </c>
-      <c r="B6" s="2">
-        <v>0</v>
-      </c>
-      <c r="C6" s="2">
-        <v>302</v>
-      </c>
-      <c r="D6" s="2">
-        <v>303</v>
-      </c>
-      <c r="E6" s="2">
-        <v>302</v>
-      </c>
-      <c r="F6" s="2">
-        <v>303</v>
+      <c r="B6" s="1">
+        <v>301</v>
+      </c>
+      <c r="C6" s="1">
+        <v>301</v>
+      </c>
+      <c r="D6" s="1">
+        <v>301</v>
+      </c>
+      <c r="E6" s="1">
+        <v>301</v>
+      </c>
+      <c r="F6" s="1">
+        <v>301</v>
+      </c>
+      <c r="G6" s="1">
+        <v>302</v>
+      </c>
+      <c r="H6" s="1">
+        <v>302</v>
+      </c>
+      <c r="I6" s="1">
+        <v>302</v>
+      </c>
+      <c r="J6" s="1">
+        <v>302</v>
+      </c>
+      <c r="K6" s="1">
+        <v>302</v>
+      </c>
+      <c r="L6" s="1">
+        <v>302</v>
+      </c>
+      <c r="M6" s="1">
+        <v>302</v>
+      </c>
+      <c r="N6" s="1">
+        <v>302</v>
+      </c>
+      <c r="O6" s="1">
+        <v>302</v>
+      </c>
+      <c r="P6" s="1">
+        <v>302</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>302</v>
+      </c>
+      <c r="R6" s="1">
+        <v>302</v>
       </c>
     </row>
     <row r="8" spans="2:6">
       <c r="B8" s="2" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="2" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="2" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="2" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
     </row>
-    <row r="12" spans="2:3">
+    <row r="12" spans="1:3">
+      <c r="A12" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="B12" s="2">
         <v>301</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="2" t="s">
-        <v>13</v>
-      </c>
+    <row r="13" spans="2:3">
       <c r="B13" s="2">
         <v>302</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
     </row>
-    <row r="14" spans="2:3">
+    <row r="14" spans="1:3">
+      <c r="A14" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="B14" s="2">
         <v>303</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="2:3">
@@ -1233,7 +1570,7 @@
         <v>304</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="2:3">
@@ -1241,7 +1578,7 @@
         <v>305</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="2:3">
@@ -1249,7 +1586,7 @@
         <v>306</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="2:3">
@@ -1257,11 +1594,12 @@
         <v>307</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>